--- a/现金流量表/600738.xlsx
+++ b/现金流量表/600738.xlsx
@@ -744,52 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-41735293.14</v>
+        <v>-85733936.78</v>
       </c>
       <c r="P2" t="n">
-        <v>-4.0226323565</v>
+        <v>-74.5799260948</v>
       </c>
       <c r="Q2" t="n">
-        <v>1270531598.35</v>
+        <v>647013066.28</v>
       </c>
       <c r="R2" t="n">
-        <v>122.4594613558</v>
+        <v>562.8364738384</v>
       </c>
       <c r="S2" t="n">
-        <v>76440961.27</v>
+        <v>60968172.97</v>
       </c>
       <c r="T2" t="n">
-        <v>7.3677183274</v>
+        <v>53.0361955255</v>
       </c>
       <c r="U2" t="n">
-        <v>95079570.54000001</v>
+        <v>-278755.71</v>
       </c>
       <c r="V2" t="n">
-        <v>9.1641900205</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>-0.2424895092</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5260390</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.5760116958</v>
+      </c>
       <c r="Y2" t="n">
-        <v>45936954.88</v>
+        <v>10316485.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.4276071199</v>
+        <v>8.974307727699999</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1090856270.58</v>
+        <v>-28943088.87</v>
       </c>
       <c r="AB2" t="n">
-        <v>-105.141557664</v>
+        <v>-25.177584396</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1037511993.18</v>
+        <v>-114955781.36</v>
       </c>
       <c r="AD2" t="n">
-        <v>-170.8106057107</v>
+        <v>88.92005276899999</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
